--- a/data/summary_22071912.xlsx
+++ b/data/summary_22071912.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,642 +406,717 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>31.54198895027624</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>990.3486187845303</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.174596694214876</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.07967355371900826</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.333777752918208</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-2.03893046059177e-005</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>31.2878453038674</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.411049723756906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>31.48453038674033</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>990.2602209944752</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2661198347107438</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2427925619834711</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.684939417907337</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.300595957661483e-017</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>30.12651933701658</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>83.02817679558011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>32.17955801104972</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>990.1624309392265</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.3098479338842975</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.3054347107438016</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.96109207035137</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.0001266074093504491</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>29.8</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.99171270718232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>32.00276243093923</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>990.1077348066299</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.3080140495867769</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.3193719008264463</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.821968970164933</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-2.740616861315892e-017</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>29.36906077348066</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4.068508287292818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>32.24530386740332</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>989.9988950276243</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.2699123966942149</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2437487603305785</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.820321147490625</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.0001037174516829326</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>29.2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.483425414364641</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>33.00662983425414</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>989.9149171270718</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.3026421487603306</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3057396694214876</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.88547051305327</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8.532021302916056e-005</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>29.5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.898342541436464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>33.65911602209945</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>989.8016574585635</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.2579776859504132</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2531272727272727</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.602540747710886</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0001362863782980217</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>30.00055248618785</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>33.43469387755102</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>989.8020408163264</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3.023288887391823e-017</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30.28979591836735</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.961224489795918</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>33.57575757575758</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>989.7206060606061</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.8393628571428572</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.8475133333333333</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5.072406334679295</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.0001001211036615972</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30.4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.746666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>35.41657458563536</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>989.592817679558</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.4439578512396694</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.4457123966942149</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.770561304916781</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0001982087235395563</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>30.7</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>36.78895027624309</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>989.5856353591161</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3100909090909091</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3007338842975207</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.999744012842677</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0001252161993847303</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>31.8707182320442</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>36.0182320441989</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>989.5082872928177</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.257394214876033</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2407438016528926</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.658958499542554</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3.353880102250044e-005</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>32.24917127071823</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.731491712707182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>37.94088397790056</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>989.4878453038674</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.3430090909090909</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.3336900826446281</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.129527616506726</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.0002321752293105234</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>32.12817679558011</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.932596685082873</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>33.8232044198895</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>987.1475138121548</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.3837190082644628</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.3597553719008265</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.430809062985607</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.0001358811300705369</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>32.01878453038674</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.08397790055248619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>32.81546961325967</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>987.179005524862</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.1756157024793388</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.162199173553719</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.114924324721345</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-2.581816704978579e-017</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>31.21767955801105</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.823204419889503</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>32.83314917127072</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>987.1121546961326</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.3370049586776859</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.3090173553719008</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.159894728659832</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>8.331374532555023e-005</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>30.7</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4.180662983425415</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>32.62265193370166</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>987.075138121547</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.2890181818181818</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.2392636363636364</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.952143111511997</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9.432488456222894e-005</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>30.65193370165746</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3.574033149171271</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>32.99944751381216</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>987.0348066298343</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.2976123966942149</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.2565305785123967</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.949659654367967</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.0001896870831882124</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>30.4</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.297237569060773</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>33.63370165745857</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>987.0082872928177</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.2434818181818182</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.2206305785123967</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1.598150581723109</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.000200117786109151</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>30.34861878453039</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5.087292817679558</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>33.13701657458564</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>987</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3294545454545454</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.292704132231405</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.157505685285874</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-1.289319093786974e-017</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>29.91767955801105</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>8.495027624309392</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>32.76850828729282</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>986.9569060773481</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.3951909090909091</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.3270487603305785</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2.647756118033263</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-2.725056147286082e-017</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>29.53480662983425</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.843646408839779</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>33.00441988950276</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>986.8988950276242</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.3144396694214876</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.3236057851239669</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.879739533267425</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6.873481723559235e-005</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>29.8</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.621546961325967</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>34.09889502762431</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>986.8812154696133</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.5152892561983471</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.4144</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3.53790162463889</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.0002128859351959323</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>30.1</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>6.767955801104972</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>34.26574585635359</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>986.9088397790055</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.3996685950413223</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.3658842975206612</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2.63472587057815</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.0001295513975452684</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>30.39005524861878</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.658011049723757</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>33.32209944751381</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>986.8950276243094</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.2268173553719008</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.1855652892561983</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.599592704730761</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-3.432208330986029e-005</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>30.22762430939227</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4.758563535911602</v>
       </c>
     </row>
